--- a/biology/Zoologie/Dicranolasma_opilionoides/Dicranolasma_opilionoides.xlsx
+++ b/biology/Zoologie/Dicranolasma_opilionoides/Dicranolasma_opilionoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicranolasma opilionoides est une espèce d'opilions dyspnois de la famille des Dicranolasmatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce en Italie, en Autriche, en Croatie, en Albanie, en Grèce et en Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce en Italie, en Autriche, en Croatie, en Albanie, en Grèce et en Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syntype mesure 5 mm[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syntype mesure 5 mm
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Trogulus opilionoides par L. Koch en 1867. Elle est placée dans le genre Dicranolasma par Sørensen en 1873[3].
-Amopaum spinipalpe[3] a été placée en synonymie par Dahl en 1903[4].
-Dicranolasma kettyi[5] a été placée en synonymie par Gruber en 1998[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Trogulus opilionoides par L. Koch en 1867. Elle est placée dans le genre Dicranolasma par Sørensen en 1873.
+Amopaum spinipalpe a été placée en synonymie par Dahl en 1903.
+Dicranolasma kettyi a été placée en synonymie par Gruber en 1998.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1867 : « Zur Arachniden und Myriapoden-Fauna Süd-Europas. » Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 17, p. 857-900 (texte intégral).</t>
         </is>
